--- a/Backend/updated_products.xlsx
+++ b/Backend/updated_products.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G475"/>
+  <dimension ref="A1:G482"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -8435,13 +8435,13 @@
     </row>
     <row r="472">
       <c r="A472" t="str">
-        <v>323074928951</v>
+        <v>995128181292</v>
       </c>
       <c r="B472" t="str">
         <v>تاريخ-كفاحي</v>
       </c>
       <c r="C472">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D472">
         <v>60</v>
@@ -8458,76 +8458,237 @@
     </row>
     <row r="473">
       <c r="A473" t="str">
-        <v>583803985968</v>
+        <v>957019291302</v>
       </c>
       <c r="B473" t="str">
-        <v>تاريخ-كفاحي</v>
+        <v>ديني-فقه النفس</v>
       </c>
       <c r="C473">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="D473">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E473">
         <v>1</v>
       </c>
       <c r="F473" t="str">
-        <v>تاريخ</v>
+        <v>ديني</v>
       </c>
       <c r="G473" t="str">
-        <v>كفاحي هو كتاب كتبه أدولف هتلر، يجمع بين عناصر السيرة الذاتية لشرح أيديولوجيته السياسية وخططه المستقبلية لألمانيا والعالم. بحسب ويكيبيديا. نُشر المجلد الأول عام 1925، والمجلد الثاني عام 1926. يحتوي الكتاب على معلومات حول نظريات هتلر النازية، مما يجعله مستندًا مهمًا لفهم أفكار وحسابات هتلر</v>
+        <v>هذا الكتاب جمع فيه المؤلف طائفةٌ مما نقل عن بعض العلماء من كلمات، وما حُكي من أعمال فيها حثٌّ وترغيب على ما يُزكِّي النفس، وتنفيرٌ وترهيب مما يُوردها مواردَ ومزالق لا تحمَد</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="str">
-        <v>258115432542</v>
+        <v>069461675576</v>
       </c>
       <c r="B474" t="str">
-        <v>تاريخ-كفاحي</v>
+        <v>رواية-طه الغريب</v>
       </c>
       <c r="C474">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="D474">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E474">
         <v>1</v>
       </c>
       <c r="F474" t="str">
-        <v>تاريخ</v>
+        <v>رواية</v>
       </c>
       <c r="G474" t="str">
-        <v>كفاحي هو كتاب كتبه أدولف هتلر، يجمع بين عناصر السيرة الذاتية لشرح أيديولوجيته السياسية وخططه المستقبلية لألمانيا والعالم. بحسب ويكيبيديا. نُشر المجلد الأول عام 1925، والمجلد الثاني عام 1926. يحتوي الكتاب على معلومات حول نظريات هتلر النازية، مما يجعله مستندًا مهمًا لفهم أفكار وحسابات هتلر</v>
+        <v>رواية تحكي قصة حب لا تنتهي، أو بالأحرى صراع بين الواقع والخيال. الرواية تدور حول شاب وفتاة في العشرينات، يروي الكاتب تفاصيل علاقتهما العاطفية، وكيف أن هذه العلاقة تؤثر في حياتهما وتصورهما للعالم</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="str">
-        <v>995128181292</v>
+        <v>788626135412</v>
       </c>
       <c r="B475" t="str">
-        <v>تاريخ-كفاحي</v>
+        <v>ديني-شرح ثلاثة الأصول</v>
       </c>
       <c r="C475">
+        <v>85</v>
+      </c>
+      <c r="D475">
+        <v>20</v>
+      </c>
+      <c r="E475">
+        <v>1</v>
+      </c>
+      <c r="F475" t="str">
+        <v>ديني</v>
+      </c>
+      <c r="G475" t="str">
+        <v xml:space="preserve"> يتناول أصول العقيدة الإسلامية الثلاثة: التوحيد والنبوة والآخرة. يقدم الشرح مبسطًا للمحلات الثلاثة مع الأدلة من القرآن والسنة. يتناول الكتاب أيضاً بعض المسائل المتعلقة بهذه الأصول، مثل: ما هو التوحيد؟ وكيف يكون التوحيد صحيحًا؟ وما هي دلائل النبوة؟ وكيف نعلم بصحة نبوة محمد صلى الله عليه وسلم؟ وما هي دلائل الآخرة؟ وكيف يؤمن المسلم بالآخرة؟</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="str">
+        <v>565789102528</v>
+      </c>
+      <c r="B476" t="str">
+        <v>تنمية-قوة التفكير</v>
+      </c>
+      <c r="C476">
         <v>120</v>
       </c>
-      <c r="D475">
+      <c r="D476">
+        <v>30</v>
+      </c>
+      <c r="E476">
+        <v>1</v>
+      </c>
+      <c r="F476" t="str">
+        <v>تنمية</v>
+      </c>
+      <c r="G476" t="str">
+        <v>دليل عملي يساعد القارئ على تطوير مهارات التفكير الإيجابي وتحقيق النجاح في حياته. الكتاب يركز على أهمية التفكير الإيجابي في تحقيق أهداف الحياة وصنع مستقبل أفضل</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="str">
+        <v>884092129139</v>
+      </c>
+      <c r="B477" t="str">
+        <v>تنمية-كلام للبنات - سيرة الحب</v>
+      </c>
+      <c r="C477">
         <v>60</v>
       </c>
-      <c r="E475">
-        <v>1</v>
-      </c>
-      <c r="F475" t="str">
-        <v>تاريخ</v>
-      </c>
-      <c r="G475" t="str">
-        <v>كفاحي هو كتاب كتبه أدولف هتلر، يجمع بين عناصر السيرة الذاتية لشرح أيديولوجيته السياسية وخططه المستقبلية لألمانيا والعالم. بحسب ويكيبيديا. نُشر المجلد الأول عام 1925، والمجلد الثاني عام 1926. يحتوي الكتاب على معلومات حول نظريات هتلر النازية، مما يجعله مستندًا مهمًا لفهم أفكار وحسابات هتلر</v>
+      <c r="D477">
+        <v>20</v>
+      </c>
+      <c r="E477">
+        <v>1</v>
+      </c>
+      <c r="F477" t="str">
+        <v>تنمية</v>
+      </c>
+      <c r="G477" t="str">
+        <v>ما هو الحب؟ تلك الكلمة التي حيرت الفلاسفة والعلماء ومن قبلهم وبعدهم العاشقون, يقول "ابن الفارض" سلطان العاشقين: {من لم يعرف الهوى فقد جهل}, ما هو الحب؟</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="str">
+        <v>081946281060</v>
+      </c>
+      <c r="B478" t="str">
+        <v>رواية-الفيل الأزرق</v>
+      </c>
+      <c r="C478">
+        <v>70</v>
+      </c>
+      <c r="D478">
+        <v>40</v>
+      </c>
+      <c r="E478">
+        <v>1</v>
+      </c>
+      <c r="F478" t="str">
+        <v>رواية</v>
+      </c>
+      <c r="G478" t="str">
+        <v>رواية مصرية من تأليف الكاتب أحمد مراد، تدور أحداثها في مستشفى العباسية للصحّة النفسية. يشارك فيها طبيب نفسي يُدعى "يحيى" يعود بعد فترة من العزلة لمواجهة صديقه القديم "شريف" الذي يُعامل في قسم 8 غرب، وهو قسم يُقرّر مصير مرتكبي الجرائم. يتعقد الأمر مع اكتشاف "يحيى" لغموض في حياة "شريف" مما يثير فضوله ويجره في رحلة لاكتشاف ذاته</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="str">
+        <v>805776942866</v>
+      </c>
+      <c r="B479" t="str">
+        <v>تنمية-كلام للبنات - من روائع قصص العفة</v>
+      </c>
+      <c r="C479">
+        <v>60</v>
+      </c>
+      <c r="D479">
+        <v>20</v>
+      </c>
+      <c r="E479">
+        <v>1</v>
+      </c>
+      <c r="F479" t="str">
+        <v>تنمية</v>
+      </c>
+      <c r="G479" t="str">
+        <v>من روائع قصص العفة" هو كتاب يتناول موضوع العفة من خلال قصص متنوعة ومؤثرة، مع التركيز على أهمية العفة في الإسلام. يهدف الكتاب إلى توجيه البنات نحو القيم الأخلاقية، وتعزيز ثقتهن بأنفسهن، وتشجيعهن على الالتزام بالعفة في حياتهن.</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="str">
+        <v>291107468187</v>
+      </c>
+      <c r="B480" t="str">
+        <v>رواية-تراب الماس</v>
+      </c>
+      <c r="C480">
+        <v>73</v>
+      </c>
+      <c r="D480">
+        <v>40</v>
+      </c>
+      <c r="E480">
+        <v>1</v>
+      </c>
+      <c r="F480" t="str">
+        <v>رواية</v>
+      </c>
+      <c r="G480" t="str">
+        <v>تحكي قصة شاب يعيش حياة رتيبة، ويعمل كمندوب دعاية طبية، ثم يمر بعدة تجارب في حياته تتغير نتيجة لتأثيرها على نظرة المجتمع له. يتساءل القارئ خلال الأحداث عن طبيعة حياة الشاب وعلاقته بالآخرين، بالإضافة إلى استكشاف قضية الأخلاق والقيم في المجتمع المصري</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="str">
+        <v>692975511431</v>
+      </c>
+      <c r="B481" t="str">
+        <v>ديني-تحفة العروس</v>
+      </c>
+      <c r="C481">
+        <v>150</v>
+      </c>
+      <c r="D481">
+        <v>50</v>
+      </c>
+      <c r="E481">
+        <v>1</v>
+      </c>
+      <c r="F481" t="str">
+        <v>ديني</v>
+      </c>
+      <c r="G481" t="str">
+        <v>كتاب يهدف إلى توعية الشباب المقبل على الزواج، ويقدم إرشادات حول الحياة الزوجية من وجهة نظر إسلامية. يركز الكتاب على مبادئ بناء علاقة زوجية ناجحة ومستقرة، بالإضافة إلى توضيح الحقوق والواجبات المتبادلة بين الزوجين.</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="str">
+        <v>070462660147</v>
+      </c>
+      <c r="B482" t="str">
+        <v>اعمال-ال40</v>
+      </c>
+      <c r="C482">
+        <v>21</v>
+      </c>
+      <c r="D482">
+        <v>1</v>
+      </c>
+      <c r="E482">
+        <v>1</v>
+      </c>
+      <c r="F482" t="str">
+        <v>اعمال</v>
+      </c>
+      <c r="G482" t="str">
+        <v>صثق</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G475"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G482"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Backend/updated_products.xlsx
+++ b/Backend/updated_products.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G482"/>
+  <dimension ref="A1:G483"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -8686,9 +8686,32 @@
         <v>صثق</v>
       </c>
     </row>
+    <row r="483">
+      <c r="A483" t="str">
+        <v>505066600656</v>
+      </c>
+      <c r="B483" t="str">
+        <v>تاريخ-ال40سشي</v>
+      </c>
+      <c r="C483">
+        <v>21</v>
+      </c>
+      <c r="D483">
+        <v>0</v>
+      </c>
+      <c r="E483">
+        <v>1</v>
+      </c>
+      <c r="F483" t="str">
+        <v>تاريخ</v>
+      </c>
+      <c r="G483" t="str">
+        <v>213</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G482"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G483"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Backend/updated_products.xlsx
+++ b/Backend/updated_products.xlsx
@@ -8665,22 +8665,22 @@
     </row>
     <row r="482">
       <c r="A482" t="str">
-        <v>070462660147</v>
+        <v>606023751912</v>
       </c>
       <c r="B482" t="str">
-        <v>اعمال-ال40</v>
+        <v>فن-قصث</v>
       </c>
       <c r="C482">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D482">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E482">
         <v>1</v>
       </c>
       <c r="F482" t="str">
-        <v>اعمال</v>
+        <v>فن</v>
       </c>
       <c r="G482" t="str">
         <v>صثق</v>
@@ -8688,25 +8688,25 @@
     </row>
     <row r="483">
       <c r="A483" t="str">
-        <v>505066600656</v>
+        <v>420524925421</v>
       </c>
       <c r="B483" t="str">
-        <v>تاريخ-ال40سشي</v>
+        <v>رواية-wrewre</v>
       </c>
       <c r="C483">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="D483">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E483">
         <v>1</v>
       </c>
       <c r="F483" t="str">
-        <v>تاريخ</v>
+        <v>رواية</v>
       </c>
       <c r="G483" t="str">
-        <v>213</v>
+        <v>wer</v>
       </c>
     </row>
   </sheetData>
